--- a/Assignment 1.xlsx
+++ b/Assignment 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Product name</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Kiwi</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -377,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,6 +489,33 @@
         <v>200</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <f>MAX(B2:B6)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <f>MIN(B2:B6)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <f>AVERAGE(B2:B6)</f>
+        <v>26.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
